--- a/Assignment_payroll_calculator.xlsx
+++ b/Assignment_payroll_calculator.xlsx
@@ -9,16 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8220" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8220" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="2" r:id="rId1"/>
     <sheet name="Payrol Report" sheetId="1" r:id="rId2"/>
+    <sheet name="DataTable" sheetId="4" r:id="rId3"/>
+    <sheet name="PivotTable" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Payrol Report'!$A$1:$R$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="7" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="112">
   <si>
     <t>Grade</t>
   </si>
@@ -277,16 +282,106 @@
   </si>
   <si>
     <t>PAYROLL CALCULATOR FOR ABC COMPANY LTD</t>
+  </si>
+  <si>
+    <t>Sum of Total Wages</t>
+  </si>
+  <si>
+    <t>Sum of 10% Bonus Amount</t>
+  </si>
+  <si>
+    <t>Sum of Total Hours Worked</t>
+  </si>
+  <si>
+    <t>Average of Total Wages</t>
+  </si>
+  <si>
+    <t>Min of Total Wages</t>
+  </si>
+  <si>
+    <t>Max of Total Wages</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Average of 10% Bonus Amount2</t>
+  </si>
+  <si>
+    <t>Min of 10% Bonus Amount</t>
+  </si>
+  <si>
+    <t>Max of 10% Bonus Amount3</t>
+  </si>
+  <si>
+    <t>Average of Total Hours Worked</t>
+  </si>
+  <si>
+    <t>Min of Total Hours Worked2</t>
+  </si>
+  <si>
+    <t>Max of Total Hours Worked3</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Christy Zhu</t>
+  </si>
+  <si>
+    <t>Elizabeth Johnson</t>
+  </si>
+  <si>
+    <t>Eugene Huang</t>
+  </si>
+  <si>
+    <t>Ian Jenkins</t>
+  </si>
+  <si>
+    <t>Jacquelyn Suarez</t>
+  </si>
+  <si>
+    <t>Julio Ruiz</t>
+  </si>
+  <si>
+    <t>Luke Lal</t>
+  </si>
+  <si>
+    <t>Marco Mehta</t>
+  </si>
+  <si>
+    <t>Rob Verhoff</t>
+  </si>
+  <si>
+    <t>Ruben Torres</t>
+  </si>
+  <si>
+    <t>Sydney Bennett</t>
+  </si>
+  <si>
+    <t>Wyatt Hill</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Grade</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -417,7 +512,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -449,18 +544,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -498,6 +627,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,15 +645,1243 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="180">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -529,6 +1892,1690 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="kwaku" refreshedDate="45222.862629745374" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table2"/>
+  </cacheSource>
+  <cacheFields count="18">
+    <cacheField name="First Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Last Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Full Name" numFmtId="0">
+      <sharedItems count="21">
+        <s v="Jon Yang"/>
+        <s v="Eugene Huang"/>
+        <s v="Ruben Torres"/>
+        <s v="Christy Zhu"/>
+        <s v="Elizabeth Johnson"/>
+        <s v="Julio Ruiz"/>
+        <s v="Janet Alvarez"/>
+        <s v="Marco Mehta"/>
+        <s v="Rob Verhoff"/>
+        <s v="Shannon Carlson"/>
+        <s v="Jacquelyn Suarez"/>
+        <s v="Curtis Lu"/>
+        <s v="Lauren Walker"/>
+        <s v="Ian Jenkins"/>
+        <s v="Sydney Bennett"/>
+        <s v="Chloe Young"/>
+        <s v="Wyatt Hill"/>
+        <s v="Shannon Wang"/>
+        <s v="Clarence Rai"/>
+        <s v="Luke Lal"/>
+        <s v="Kwaku Darpah" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Grade" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="2" count="2">
+        <n v="1"/>
+        <n v="2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Rate" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="25" maxValue="50"/>
+    </cacheField>
+    <cacheField name="Hours_Week 1" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="11" maxValue="40"/>
+    </cacheField>
+    <cacheField name="Hours_Week 2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="13" maxValue="40"/>
+    </cacheField>
+    <cacheField name="Hours_Week 3" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="40"/>
+    </cacheField>
+    <cacheField name="Hours_Week 4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="40"/>
+    </cacheField>
+    <cacheField name="Total Hours Worked" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="73" maxValue="160"/>
+    </cacheField>
+    <cacheField name="Wages_Week 1" numFmtId="6">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="275" maxValue="2000"/>
+    </cacheField>
+    <cacheField name="Wages_Week 2" numFmtId="6">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="425" maxValue="2000"/>
+    </cacheField>
+    <cacheField name="Wages_Week 3" numFmtId="6">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="375" maxValue="2000"/>
+    </cacheField>
+    <cacheField name="Wages_Week 4" numFmtId="6">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="300" maxValue="2000"/>
+    </cacheField>
+    <cacheField name="Total Weekly Wage" numFmtId="6">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1850" maxValue="8000"/>
+    </cacheField>
+    <cacheField name="0.10% Bonus" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.1"/>
+    </cacheField>
+    <cacheField name="10% Bonus Amount" numFmtId="8">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="800"/>
+    </cacheField>
+    <cacheField name="Total Wages" numFmtId="6">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1850" maxValue="8800"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="20">
+  <r>
+    <s v="Jon"/>
+    <s v="Yang"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="25"/>
+    <n v="15"/>
+    <n v="20"/>
+    <n v="40"/>
+    <n v="40"/>
+    <n v="115"/>
+    <n v="375"/>
+    <n v="500"/>
+    <n v="1000"/>
+    <n v="1000"/>
+    <n v="2875"/>
+    <n v="0.1"/>
+    <n v="287.5"/>
+    <n v="3162.5"/>
+  </r>
+  <r>
+    <s v="Eugene"/>
+    <s v="Huang"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="50"/>
+    <n v="12"/>
+    <n v="28"/>
+    <n v="14"/>
+    <n v="22"/>
+    <n v="76"/>
+    <n v="600"/>
+    <n v="1400"/>
+    <n v="700"/>
+    <n v="1100"/>
+    <n v="3800"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3800"/>
+  </r>
+  <r>
+    <s v="Ruben"/>
+    <s v="Torres"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="25"/>
+    <n v="40"/>
+    <n v="40"/>
+    <n v="40"/>
+    <n v="40"/>
+    <n v="160"/>
+    <n v="1000"/>
+    <n v="1000"/>
+    <n v="1000"/>
+    <n v="1000"/>
+    <n v="4000"/>
+    <n v="0.1"/>
+    <n v="400"/>
+    <n v="4400"/>
+  </r>
+  <r>
+    <s v="Christy"/>
+    <s v="Zhu"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="50"/>
+    <n v="25"/>
+    <n v="13"/>
+    <n v="17"/>
+    <n v="29"/>
+    <n v="84"/>
+    <n v="1250"/>
+    <n v="650"/>
+    <n v="850"/>
+    <n v="1450"/>
+    <n v="4200"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4200"/>
+  </r>
+  <r>
+    <s v="Elizabeth"/>
+    <s v="Johnson"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="50"/>
+    <n v="16"/>
+    <n v="26"/>
+    <n v="10"/>
+    <n v="24"/>
+    <n v="76"/>
+    <n v="800"/>
+    <n v="1300"/>
+    <n v="500"/>
+    <n v="1200"/>
+    <n v="3800"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3800"/>
+  </r>
+  <r>
+    <s v="Julio"/>
+    <s v="Ruiz"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="25"/>
+    <n v="14"/>
+    <n v="21"/>
+    <n v="27"/>
+    <n v="12"/>
+    <n v="74"/>
+    <n v="350"/>
+    <n v="525"/>
+    <n v="675"/>
+    <n v="300"/>
+    <n v="1850"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1850"/>
+  </r>
+  <r>
+    <s v="Janet"/>
+    <s v="Alvarez"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="25"/>
+    <n v="40"/>
+    <n v="17"/>
+    <n v="40"/>
+    <n v="40"/>
+    <n v="137"/>
+    <n v="1000"/>
+    <n v="425"/>
+    <n v="1000"/>
+    <n v="1000"/>
+    <n v="3425"/>
+    <n v="0.1"/>
+    <n v="342.5"/>
+    <n v="3767.5"/>
+  </r>
+  <r>
+    <s v="Marco"/>
+    <s v="Mehta"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="50"/>
+    <n v="40"/>
+    <n v="40"/>
+    <n v="40"/>
+    <n v="40"/>
+    <n v="160"/>
+    <n v="2000"/>
+    <n v="2000"/>
+    <n v="2000"/>
+    <n v="2000"/>
+    <n v="8000"/>
+    <n v="0.1"/>
+    <n v="800"/>
+    <n v="8800"/>
+  </r>
+  <r>
+    <s v="Rob"/>
+    <s v="Verhoff"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="25"/>
+    <n v="40"/>
+    <n v="40"/>
+    <n v="40"/>
+    <n v="23"/>
+    <n v="143"/>
+    <n v="1000"/>
+    <n v="1000"/>
+    <n v="1000"/>
+    <n v="575"/>
+    <n v="3575"/>
+    <n v="0.1"/>
+    <n v="357.5"/>
+    <n v="3932.5"/>
+  </r>
+  <r>
+    <s v="Shannon"/>
+    <s v="Carlson"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="25"/>
+    <n v="13"/>
+    <n v="40"/>
+    <n v="40"/>
+    <n v="40"/>
+    <n v="133"/>
+    <n v="325"/>
+    <n v="1000"/>
+    <n v="1000"/>
+    <n v="1000"/>
+    <n v="3325"/>
+    <n v="0.1"/>
+    <n v="332.5"/>
+    <n v="3657.5"/>
+  </r>
+  <r>
+    <s v="Jacquelyn"/>
+    <s v="Suarez"/>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="50"/>
+    <n v="35"/>
+    <n v="25"/>
+    <n v="19"/>
+    <n v="28"/>
+    <n v="107"/>
+    <n v="1750"/>
+    <n v="1250"/>
+    <n v="950"/>
+    <n v="1400"/>
+    <n v="5350"/>
+    <n v="0.1"/>
+    <n v="535"/>
+    <n v="5885"/>
+  </r>
+  <r>
+    <s v="Curtis"/>
+    <s v="Lu"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="25"/>
+    <n v="20"/>
+    <n v="34"/>
+    <n v="28"/>
+    <n v="17"/>
+    <n v="99"/>
+    <n v="500"/>
+    <n v="850"/>
+    <n v="700"/>
+    <n v="425"/>
+    <n v="2475"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2475"/>
+  </r>
+  <r>
+    <s v="Lauren"/>
+    <s v="Walker"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="25"/>
+    <n v="11"/>
+    <n v="27"/>
+    <n v="35"/>
+    <n v="40"/>
+    <n v="113"/>
+    <n v="275"/>
+    <n v="675"/>
+    <n v="875"/>
+    <n v="1000"/>
+    <n v="2825"/>
+    <n v="0.1"/>
+    <n v="282.5"/>
+    <n v="3107.5"/>
+  </r>
+  <r>
+    <s v="Ian"/>
+    <s v="Jenkins"/>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="50"/>
+    <n v="28"/>
+    <n v="14"/>
+    <n v="21"/>
+    <n v="10"/>
+    <n v="73"/>
+    <n v="1400"/>
+    <n v="700"/>
+    <n v="1050"/>
+    <n v="500"/>
+    <n v="3650"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3650"/>
+  </r>
+  <r>
+    <s v="Sydney"/>
+    <s v="Bennett"/>
+    <x v="14"/>
+    <x v="1"/>
+    <n v="50"/>
+    <n v="24"/>
+    <n v="23"/>
+    <n v="40"/>
+    <n v="40"/>
+    <n v="127"/>
+    <n v="1200"/>
+    <n v="1150"/>
+    <n v="2000"/>
+    <n v="2000"/>
+    <n v="6350"/>
+    <n v="0.1"/>
+    <n v="635"/>
+    <n v="6985"/>
+  </r>
+  <r>
+    <s v="Chloe"/>
+    <s v="Young"/>
+    <x v="15"/>
+    <x v="0"/>
+    <n v="25"/>
+    <n v="16"/>
+    <n v="40"/>
+    <n v="15"/>
+    <n v="23"/>
+    <n v="94"/>
+    <n v="400"/>
+    <n v="1000"/>
+    <n v="375"/>
+    <n v="575"/>
+    <n v="2350"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2350"/>
+  </r>
+  <r>
+    <s v="Wyatt"/>
+    <s v="Hill"/>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="50"/>
+    <n v="12"/>
+    <n v="40"/>
+    <n v="29"/>
+    <n v="14"/>
+    <n v="95"/>
+    <n v="600"/>
+    <n v="2000"/>
+    <n v="1450"/>
+    <n v="700"/>
+    <n v="4750"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4750"/>
+  </r>
+  <r>
+    <s v="Shannon"/>
+    <s v="Wang"/>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="25"/>
+    <n v="19"/>
+    <n v="40"/>
+    <n v="40"/>
+    <n v="27"/>
+    <n v="126"/>
+    <n v="475"/>
+    <n v="1000"/>
+    <n v="1000"/>
+    <n v="675"/>
+    <n v="3150"/>
+    <n v="0.1"/>
+    <n v="315"/>
+    <n v="3465"/>
+  </r>
+  <r>
+    <s v="Clarence"/>
+    <s v="Rai"/>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="25"/>
+    <n v="26"/>
+    <n v="40"/>
+    <n v="20"/>
+    <n v="16"/>
+    <n v="102"/>
+    <n v="650"/>
+    <n v="1000"/>
+    <n v="500"/>
+    <n v="400"/>
+    <n v="2550"/>
+    <n v="0.1"/>
+    <n v="255"/>
+    <n v="2805"/>
+  </r>
+  <r>
+    <s v="Luke"/>
+    <s v="Lal"/>
+    <x v="19"/>
+    <x v="1"/>
+    <n v="50"/>
+    <n v="15"/>
+    <n v="20"/>
+    <n v="40"/>
+    <n v="18"/>
+    <n v="93"/>
+    <n v="750"/>
+    <n v="1000"/>
+    <n v="2000"/>
+    <n v="900"/>
+    <n v="4650"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4650"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable16" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M17:N18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1">
+      <items count="22">
+        <item x="15"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item m="1" x="20"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x v="6"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Hours Worked" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="2" type="count" evalOrder="-1" id="5" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 top="0" val="1" filterVal="1"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="7" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C10:D13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="8" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Average of 10% Bonus Amount2" fld="16" subtotal="average" baseField="0" baseItem="0" numFmtId="44"/>
+    <dataField name="Min of 10% Bonus Amount" fld="16" subtotal="min" baseField="0" baseItem="0" numFmtId="44"/>
+    <dataField name="Max of 10% Bonus Amount3" fld="16" subtotal="max" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="7" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C3:D6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Average of Total Wages" fld="17" subtotal="average" baseField="0" baseItem="1897520640" numFmtId="44"/>
+    <dataField name="Min of Total Wages" fld="17" subtotal="min" baseField="0" baseItem="1" numFmtId="44"/>
+    <dataField name="Max of Total Wages" fld="17" subtotal="max" baseField="0" baseItem="1" numFmtId="44"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A9:A10" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Hours Worked" fld="9" baseField="0" baseItem="0" numFmtId="169"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="160">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="159">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="158">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="157">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="156">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="155">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A6:A7" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="8" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of 10% Bonus Amount" fld="16" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Wages" fld="17" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable15" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M12:N14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1">
+      <items count="22">
+        <item x="15"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item m="1" x="20"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Hours Worked" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="50">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="51">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="52">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="53">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="54">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="55">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="2" type="count" evalOrder="-1" id="4" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="1" filterVal="1"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable14" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M8:N9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1">
+      <items count="22">
+        <item x="15"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item m="1" x="20"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x v="10"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Wages" fld="17" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="7">
+    <format dxfId="74">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="75">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="76">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="77">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="78">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="79">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="43">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="2" type="count" evalOrder="-1" id="2" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 top="0" val="1" filterVal="1"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M3:N4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1">
+      <items count="22">
+        <item x="15"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item m="1" x="20"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x v="14"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Wages" fld="17" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="7">
+    <format dxfId="116">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="117">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="118">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="119">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="120">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="121">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="36">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="2" type="count" evalOrder="-1" id="1" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="1" filterVal="1"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I14:K16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="22">
+        <item x="15"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item m="1" x="20"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Grade" fld="3" subtotal="count" baseField="2" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="140">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="122">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I3:J9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
+      <items count="22">
+        <item x="15"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item m="1" x="20"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Hours Worked" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="153">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="2" type="count" evalOrder="-1" id="3" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 top="0" val="5" filterVal="5"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F12:G18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
+      <items count="22">
+        <item x="15"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item m="1" x="20"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="8" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of 10% Bonus Amount" fld="16" baseField="0" baseItem="0" numFmtId="43"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="154">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="2" type="count" evalOrder="-1" id="2" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="5" filterVal="5"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F3:G9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
+      <items count="22">
+        <item x="15"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item m="1" x="20"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Wages" fld="17" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="2" type="count" evalOrder="-1" id="1" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="5" filterVal="5"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="7" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C16:D19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Average of Total Hours Worked" fld="9" subtotal="average" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="Min of Total Hours Worked2" fld="9" subtotal="min" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="Max of Total Hours Worked3" fld="9" subtotal="max" baseField="0" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:R23" totalsRowShown="0" tableBorderDxfId="179">
+  <autoFilter ref="A3:R23"/>
+  <tableColumns count="18">
+    <tableColumn id="1" name="First Name" dataDxfId="178"/>
+    <tableColumn id="2" name="Last Name" dataDxfId="177"/>
+    <tableColumn id="3" name="Full Name" dataDxfId="176">
+      <calculatedColumnFormula>CONCATENATE(A4," ",B4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Grade" dataDxfId="175"/>
+    <tableColumn id="5" name="Rate" dataDxfId="174">
+      <calculatedColumnFormula>IF(D4=1,25,IF(D4=2,50,"Not Selected"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Hours_Week 1" dataDxfId="173"/>
+    <tableColumn id="7" name="Hours_Week 2" dataDxfId="172"/>
+    <tableColumn id="8" name="Hours_Week 3" dataDxfId="171"/>
+    <tableColumn id="9" name="Hours_Week 4" dataDxfId="170"/>
+    <tableColumn id="10" name="Total Hours Worked" dataDxfId="169">
+      <calculatedColumnFormula>SUM(F4:I4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="Wages_Week 1" dataDxfId="168">
+      <calculatedColumnFormula>$E4*F4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="Wages_Week 2" dataDxfId="167">
+      <calculatedColumnFormula>$E4*G4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="Wages_Week 3" dataDxfId="166">
+      <calculatedColumnFormula>$E4*H4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="Wages_Week 4" dataDxfId="165">
+      <calculatedColumnFormula>$E4*I4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="Total Weekly Wage" dataDxfId="164">
+      <calculatedColumnFormula>SUM(K4:N4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="0.10% Bonus" dataDxfId="163">
+      <calculatedColumnFormula>IF(J4&gt;=100,0.1,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="10% Bonus Amount" dataDxfId="162">
+      <calculatedColumnFormula>O4*P4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="Total Wages" dataDxfId="161">
+      <calculatedColumnFormula>O4+Q4</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -831,7 +3878,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -844,19 +3891,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="23"/>
       <c r="D1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -864,21 +3911,21 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="19">
         <v>25</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -901,7 +3948,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>81</v>
       </c>
     </row>
@@ -977,21 +4024,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="79" workbookViewId="0">
+      <selection sqref="A1:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="17.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
+    <col min="6" max="10" width="13" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="18.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="19" style="1" customWidth="1"/>
@@ -1004,897 +4048,3435 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="3"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="23" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="26" t="s">
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="R3" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="13">
+      <c r="C4" s="7" t="str">
+        <f>CONCATENATE(A4," ",B4)</f>
+        <v>Jon Yang</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <f>IF(D4=1,25,IF(D4=2,50,"Not Selected"))</f>
+        <v>25</v>
+      </c>
+      <c r="F4" s="12">
         <v>15</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>20</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>40</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <v>40</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
+      <c r="J4" s="13">
+        <f>SUM(F4:I4)</f>
+        <v>115</v>
+      </c>
+      <c r="K4" s="11">
+        <f>$E4*F4</f>
+        <v>375</v>
+      </c>
+      <c r="L4" s="11">
+        <f t="shared" ref="L4:N4" si="0">$E4*G4</f>
+        <v>500</v>
+      </c>
+      <c r="M4" s="11">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="N4" s="11">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="O4" s="11">
+        <f>SUM(K4:N4)</f>
+        <v>2875</v>
+      </c>
+      <c r="P4" s="16">
+        <f>IF(J4&gt;=100,0.1,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="Q4" s="30">
+        <f>O4*P4</f>
+        <v>287.5</v>
+      </c>
+      <c r="R4" s="17">
+        <f>O4+Q4</f>
+        <v>3162.5</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="13">
+      <c r="C5" s="7" t="str">
+        <f t="shared" ref="C5:C23" si="1">CONCATENATE(A5," ",B5)</f>
+        <v>Eugene Huang</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" ref="E5:E23" si="2">IF(D5=1,25,IF(D5=2,50,"Not Selected"))</f>
+        <v>50</v>
+      </c>
+      <c r="F5" s="12">
         <v>12</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>28</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>14</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <v>22</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
+      <c r="J5" s="13">
+        <f>SUM(F5:I5)</f>
+        <v>76</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" ref="K5:K23" si="3">$E5*F5</f>
+        <v>600</v>
+      </c>
+      <c r="L5" s="11">
+        <f t="shared" ref="L5:L23" si="4">$E5*G5</f>
+        <v>1400</v>
+      </c>
+      <c r="M5" s="11">
+        <f t="shared" ref="M5:M23" si="5">$E5*H5</f>
+        <v>700</v>
+      </c>
+      <c r="N5" s="11">
+        <f t="shared" ref="N5:N23" si="6">$E5*I5</f>
+        <v>1100</v>
+      </c>
+      <c r="O5" s="11">
+        <f>SUM(K5:N5)</f>
+        <v>3800</v>
+      </c>
+      <c r="P5" s="16">
+        <f t="shared" ref="P5:P23" si="7">IF(J5&gt;=100,0.1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="30">
+        <f t="shared" ref="Q5:Q23" si="8">O5*P5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="17">
+        <f t="shared" ref="R5:R23" si="9">O5+Q5</f>
+        <v>3800</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="13">
+      <c r="C6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Ruben Torres</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F6" s="12">
         <v>40</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>40</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <v>40</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="12">
         <v>40</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
+      <c r="J6" s="13">
+        <f>SUM(F6:I6)</f>
+        <v>160</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="L6" s="11">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="M6" s="11">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="N6" s="11">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="O6" s="11">
+        <f>SUM(K6:N6)</f>
+        <v>4000</v>
+      </c>
+      <c r="P6" s="16">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q6" s="30">
+        <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="R6" s="17">
+        <f t="shared" si="9"/>
+        <v>4400</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="13">
+      <c r="C7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Christy Zhu</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F7" s="12">
         <v>25</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>13</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <v>17</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <v>29</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
+      <c r="J7" s="13">
+        <f>SUM(F7:I7)</f>
+        <v>84</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="3"/>
+        <v>1250</v>
+      </c>
+      <c r="L7" s="11">
+        <f t="shared" si="4"/>
+        <v>650</v>
+      </c>
+      <c r="M7" s="11">
+        <f t="shared" si="5"/>
+        <v>850</v>
+      </c>
+      <c r="N7" s="11">
+        <f t="shared" si="6"/>
+        <v>1450</v>
+      </c>
+      <c r="O7" s="11">
+        <f>SUM(K7:N7)</f>
+        <v>4200</v>
+      </c>
+      <c r="P7" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="17">
+        <f t="shared" si="9"/>
+        <v>4200</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="13">
+      <c r="C8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Elizabeth Johnson</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F8" s="12">
         <v>16</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>26</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <v>10</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <v>24</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
+      <c r="J8" s="13">
+        <f>SUM(F8:I8)</f>
+        <v>76</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="L8" s="11">
+        <f t="shared" si="4"/>
+        <v>1300</v>
+      </c>
+      <c r="M8" s="11">
+        <f t="shared" si="5"/>
+        <v>500</v>
+      </c>
+      <c r="N8" s="11">
+        <f t="shared" si="6"/>
+        <v>1200</v>
+      </c>
+      <c r="O8" s="11">
+        <f t="shared" ref="O5:O23" si="10">SUM(K8:N8)</f>
+        <v>3800</v>
+      </c>
+      <c r="P8" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="17">
+        <f t="shared" si="9"/>
+        <v>3800</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="13">
+      <c r="C9" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Julio Ruiz</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F9" s="12">
         <v>14</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>21</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <v>27</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="12">
         <v>12</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
+      <c r="J9" s="13">
+        <f>SUM(F9:I9)</f>
+        <v>74</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="L9" s="11">
+        <f t="shared" si="4"/>
+        <v>525</v>
+      </c>
+      <c r="M9" s="11">
+        <f t="shared" si="5"/>
+        <v>675</v>
+      </c>
+      <c r="N9" s="11">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="O9" s="11">
+        <f t="shared" si="10"/>
+        <v>1850</v>
+      </c>
+      <c r="P9" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="17">
+        <f t="shared" si="9"/>
+        <v>1850</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="13">
+      <c r="C10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Janet Alvarez</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F10" s="12">
         <v>40</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <v>17</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="12">
         <v>40</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="12">
         <v>40</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
+      <c r="J10" s="13">
+        <f t="shared" ref="J5:J23" si="11">SUM(F10:I10)</f>
+        <v>137</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="L10" s="11">
+        <f t="shared" si="4"/>
+        <v>425</v>
+      </c>
+      <c r="M10" s="11">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="N10" s="11">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="O10" s="11">
+        <f t="shared" si="10"/>
+        <v>3425</v>
+      </c>
+      <c r="P10" s="16">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q10" s="30">
+        <f t="shared" si="8"/>
+        <v>342.5</v>
+      </c>
+      <c r="R10" s="17">
+        <f t="shared" si="9"/>
+        <v>3767.5</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="13">
+      <c r="C11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Marco Mehta</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F11" s="12">
         <v>40</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>40</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <v>40</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="12">
         <v>40</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
+      <c r="J11" s="13">
+        <f t="shared" si="11"/>
+        <v>160</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="L11" s="11">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="M11" s="11">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="N11" s="11">
+        <f t="shared" si="6"/>
+        <v>2000</v>
+      </c>
+      <c r="O11" s="11">
+        <f t="shared" si="10"/>
+        <v>8000</v>
+      </c>
+      <c r="P11" s="16">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q11" s="30">
+        <f t="shared" si="8"/>
+        <v>800</v>
+      </c>
+      <c r="R11" s="17">
+        <f t="shared" si="9"/>
+        <v>8800</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="13">
+      <c r="C12" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Rob Verhoff</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F12" s="12">
         <v>40</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <v>40</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="12">
         <v>40</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="12">
         <v>23</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
+      <c r="J12" s="13">
+        <f t="shared" si="11"/>
+        <v>143</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="L12" s="11">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="M12" s="11">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="N12" s="11">
+        <f t="shared" si="6"/>
+        <v>575</v>
+      </c>
+      <c r="O12" s="11">
+        <f t="shared" si="10"/>
+        <v>3575</v>
+      </c>
+      <c r="P12" s="16">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q12" s="30">
+        <f t="shared" si="8"/>
+        <v>357.5</v>
+      </c>
+      <c r="R12" s="17">
+        <f t="shared" si="9"/>
+        <v>3932.5</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="13">
+      <c r="C13" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Shannon Carlson</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F13" s="12">
         <v>13</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>40</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="12">
         <v>40</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="12">
         <v>40</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
+      <c r="J13" s="13">
+        <f t="shared" si="11"/>
+        <v>133</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" si="3"/>
+        <v>325</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="M13" s="11">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="N13" s="11">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="O13" s="11">
+        <f t="shared" si="10"/>
+        <v>3325</v>
+      </c>
+      <c r="P13" s="16">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q13" s="30">
+        <f t="shared" si="8"/>
+        <v>332.5</v>
+      </c>
+      <c r="R13" s="17">
+        <f t="shared" si="9"/>
+        <v>3657.5</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="13">
+      <c r="C14" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Jacquelyn Suarez</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F14" s="12">
         <v>35</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <v>25</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="12">
         <v>19</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="12">
         <v>28</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
+      <c r="J14" s="13">
+        <f t="shared" si="11"/>
+        <v>107</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="3"/>
+        <v>1750</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="M14" s="11">
+        <f t="shared" si="5"/>
+        <v>950</v>
+      </c>
+      <c r="N14" s="11">
+        <f t="shared" si="6"/>
+        <v>1400</v>
+      </c>
+      <c r="O14" s="11">
+        <f t="shared" si="10"/>
+        <v>5350</v>
+      </c>
+      <c r="P14" s="16">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q14" s="30">
+        <f t="shared" si="8"/>
+        <v>535</v>
+      </c>
+      <c r="R14" s="17">
+        <f t="shared" si="9"/>
+        <v>5885</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="13">
+      <c r="C15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Curtis Lu</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F15" s="12">
         <v>20</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="12">
         <v>34</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="12">
         <v>28</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="12">
         <v>17</v>
       </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
+      <c r="J15" s="13">
+        <f t="shared" si="11"/>
+        <v>99</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="L15" s="11">
+        <f t="shared" si="4"/>
+        <v>850</v>
+      </c>
+      <c r="M15" s="11">
+        <f t="shared" si="5"/>
+        <v>700</v>
+      </c>
+      <c r="N15" s="11">
+        <f t="shared" si="6"/>
+        <v>425</v>
+      </c>
+      <c r="O15" s="11">
+        <f t="shared" si="10"/>
+        <v>2475</v>
+      </c>
+      <c r="P15" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="17">
+        <f t="shared" si="9"/>
+        <v>2475</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="13">
+      <c r="C16" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauren Walker</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F16" s="12">
         <v>11</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="12">
         <v>27</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="12">
         <v>35</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="12">
         <v>40</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
+      <c r="J16" s="13">
+        <f t="shared" si="11"/>
+        <v>113</v>
+      </c>
+      <c r="K16" s="11">
+        <f t="shared" si="3"/>
+        <v>275</v>
+      </c>
+      <c r="L16" s="11">
+        <f>$E16*G16</f>
+        <v>675</v>
+      </c>
+      <c r="M16" s="11">
+        <f t="shared" si="5"/>
+        <v>875</v>
+      </c>
+      <c r="N16" s="11">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="O16" s="11">
+        <f t="shared" si="10"/>
+        <v>2825</v>
+      </c>
+      <c r="P16" s="16">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q16" s="30">
+        <f t="shared" si="8"/>
+        <v>282.5</v>
+      </c>
+      <c r="R16" s="17">
+        <f t="shared" si="9"/>
+        <v>3107.5</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="13">
+      <c r="C17" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Ian Jenkins</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F17" s="12">
         <v>28</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <v>14</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="12">
         <v>21</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="12">
         <v>10</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
+      <c r="J17" s="13">
+        <f t="shared" si="11"/>
+        <v>73</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="L17" s="11">
+        <f t="shared" si="4"/>
+        <v>700</v>
+      </c>
+      <c r="M17" s="11">
+        <f t="shared" si="5"/>
+        <v>1050</v>
+      </c>
+      <c r="N17" s="11">
+        <f t="shared" si="6"/>
+        <v>500</v>
+      </c>
+      <c r="O17" s="11">
+        <f t="shared" si="10"/>
+        <v>3650</v>
+      </c>
+      <c r="P17" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="17">
+        <f t="shared" si="9"/>
+        <v>3650</v>
+      </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="13">
+      <c r="C18" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Sydney Bennett</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F18" s="12">
         <v>24</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <v>23</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="12">
         <v>40</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="12">
         <v>40</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
+      <c r="J18" s="13">
+        <f t="shared" si="11"/>
+        <v>127</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" si="4"/>
+        <v>1150</v>
+      </c>
+      <c r="M18" s="11">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="N18" s="11">
+        <f t="shared" si="6"/>
+        <v>2000</v>
+      </c>
+      <c r="O18" s="11">
+        <f t="shared" si="10"/>
+        <v>6350</v>
+      </c>
+      <c r="P18" s="16">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q18" s="30">
+        <f t="shared" si="8"/>
+        <v>635</v>
+      </c>
+      <c r="R18" s="17">
+        <f t="shared" si="9"/>
+        <v>6985</v>
+      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="13">
+      <c r="C19" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Chloe Young</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F19" s="12">
         <v>16</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="12">
         <v>40</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="12">
         <v>15</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="12">
         <v>23</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
+      <c r="J19" s="13">
+        <f t="shared" si="11"/>
+        <v>94</v>
+      </c>
+      <c r="K19" s="11">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="L19" s="11">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="M19" s="11">
+        <f t="shared" si="5"/>
+        <v>375</v>
+      </c>
+      <c r="N19" s="11">
+        <f t="shared" si="6"/>
+        <v>575</v>
+      </c>
+      <c r="O19" s="11">
+        <f t="shared" si="10"/>
+        <v>2350</v>
+      </c>
+      <c r="P19" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="17">
+        <f t="shared" si="9"/>
+        <v>2350</v>
+      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="13">
+      <c r="C20" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Wyatt Hill</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F20" s="12">
         <v>12</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="12">
         <v>40</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="12">
         <v>29</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="12">
         <v>14</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
+      <c r="J20" s="13">
+        <f t="shared" si="11"/>
+        <v>95</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="L20" s="11">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="M20" s="11">
+        <f t="shared" si="5"/>
+        <v>1450</v>
+      </c>
+      <c r="N20" s="11">
+        <f t="shared" si="6"/>
+        <v>700</v>
+      </c>
+      <c r="O20" s="11">
+        <f t="shared" si="10"/>
+        <v>4750</v>
+      </c>
+      <c r="P20" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="17">
+        <f t="shared" si="9"/>
+        <v>4750</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="13">
+      <c r="C21" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Shannon Wang</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F21" s="12">
         <v>19</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="12">
         <v>40</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="12">
         <v>40</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="12">
         <v>27</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
+      <c r="J21" s="13">
+        <f t="shared" si="11"/>
+        <v>126</v>
+      </c>
+      <c r="K21" s="11">
+        <f t="shared" si="3"/>
+        <v>475</v>
+      </c>
+      <c r="L21" s="11">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="M21" s="11">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="N21" s="11">
+        <f t="shared" si="6"/>
+        <v>675</v>
+      </c>
+      <c r="O21" s="11">
+        <f t="shared" si="10"/>
+        <v>3150</v>
+      </c>
+      <c r="P21" s="16">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q21" s="30">
+        <f t="shared" si="8"/>
+        <v>315</v>
+      </c>
+      <c r="R21" s="17">
+        <f t="shared" si="9"/>
+        <v>3465</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="13">
+      <c r="C22" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Clarence Rai</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F22" s="12">
         <v>26</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="12">
         <v>40</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="12">
         <v>20</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="12">
         <v>16</v>
       </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
+      <c r="J22" s="13">
+        <f t="shared" si="11"/>
+        <v>102</v>
+      </c>
+      <c r="K22" s="11">
+        <f>$E22*F22</f>
+        <v>650</v>
+      </c>
+      <c r="L22" s="11">
+        <f>$E22*G22</f>
+        <v>1000</v>
+      </c>
+      <c r="M22" s="11">
+        <f>$E22*H22</f>
+        <v>500</v>
+      </c>
+      <c r="N22" s="11">
+        <f>$E22*I22</f>
+        <v>400</v>
+      </c>
+      <c r="O22" s="11">
+        <f t="shared" si="10"/>
+        <v>2550</v>
+      </c>
+      <c r="P22" s="16">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q22" s="30">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="R22" s="17">
+        <f t="shared" si="9"/>
+        <v>2805</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="13">
+      <c r="C23" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Luke Lal</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F23" s="12">
         <v>15</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="12">
         <v>20</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="12">
         <v>40</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="12">
         <v>18</v>
       </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
+      <c r="J23" s="13">
+        <f t="shared" si="11"/>
+        <v>93</v>
+      </c>
+      <c r="K23" s="11">
+        <f>$E23*F23</f>
+        <v>750</v>
+      </c>
+      <c r="L23" s="11">
+        <f>$E23*G23</f>
+        <v>1000</v>
+      </c>
+      <c r="M23" s="11">
+        <f>$E23*H23</f>
+        <v>2000</v>
+      </c>
+      <c r="N23" s="11">
+        <f>$E23*I23</f>
+        <v>900</v>
+      </c>
+      <c r="O23" s="11">
+        <f t="shared" si="10"/>
+        <v>4650</v>
+      </c>
+      <c r="P23" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="17">
+        <f t="shared" si="9"/>
+        <v>4650</v>
+      </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E25" s="10"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E26" s="10"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E27" s="10"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E28" s="10"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E29" s="10"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E30" s="10"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E31" s="10"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E32" s="10"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E33" s="10"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
     </row>
     <row r="34" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E34" s="10"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
     </row>
     <row r="35" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E35" s="10"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
     </row>
     <row r="36" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E36" s="10"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
     </row>
     <row r="37" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E37" s="10"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
     </row>
     <row r="38" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E38" s="10"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
     </row>
     <row r="39" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E39" s="10"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
     </row>
     <row r="40" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E40" s="10"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
     </row>
     <row r="41" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E41" s="10"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
     </row>
     <row r="42" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="10"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
     </row>
     <row r="43" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="10"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
     </row>
     <row r="44" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="10"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
     </row>
     <row r="45" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="11"/>
+      <c r="E45" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="K2:O2"/>
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A1:R1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D23">
+      <formula1>"1,2"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="6" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="11" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="17" max="17" width="22.28515625" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="str">
+        <f>CONCATENATE(A4," ",B4)</f>
+        <v>Jon Yang</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <f>IF(D4=1,25,IF(D4=2,50,"Not Selected"))</f>
+        <v>25</v>
+      </c>
+      <c r="F4" s="12">
+        <v>15</v>
+      </c>
+      <c r="G4" s="12">
+        <v>20</v>
+      </c>
+      <c r="H4" s="12">
+        <v>40</v>
+      </c>
+      <c r="I4" s="12">
+        <v>40</v>
+      </c>
+      <c r="J4" s="13">
+        <f>SUM(F4:I4)</f>
+        <v>115</v>
+      </c>
+      <c r="K4" s="11">
+        <f>$E4*F4</f>
+        <v>375</v>
+      </c>
+      <c r="L4" s="11">
+        <f t="shared" ref="L4:N19" si="0">$E4*G4</f>
+        <v>500</v>
+      </c>
+      <c r="M4" s="11">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="N4" s="11">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="O4" s="11">
+        <f>SUM(K4:N4)</f>
+        <v>2875</v>
+      </c>
+      <c r="P4" s="16">
+        <f>IF(J4&gt;=100,0.1,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="Q4" s="30">
+        <f>O4*P4</f>
+        <v>287.5</v>
+      </c>
+      <c r="R4" s="17">
+        <f>O4+Q4</f>
+        <v>3162.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="str">
+        <f t="shared" ref="C5:C23" si="1">CONCATENATE(A5," ",B5)</f>
+        <v>Eugene Huang</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" ref="E5:E23" si="2">IF(D5=1,25,IF(D5=2,50,"Not Selected"))</f>
+        <v>50</v>
+      </c>
+      <c r="F5" s="12">
+        <v>12</v>
+      </c>
+      <c r="G5" s="12">
+        <v>28</v>
+      </c>
+      <c r="H5" s="12">
+        <v>14</v>
+      </c>
+      <c r="I5" s="12">
+        <v>22</v>
+      </c>
+      <c r="J5" s="13">
+        <f>SUM(F5:I5)</f>
+        <v>76</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" ref="K5:N23" si="3">$E5*F5</f>
+        <v>600</v>
+      </c>
+      <c r="L5" s="11">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="M5" s="11">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="N5" s="11">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="O5" s="11">
+        <f>SUM(K5:N5)</f>
+        <v>3800</v>
+      </c>
+      <c r="P5" s="16">
+        <f t="shared" ref="P5:P23" si="4">IF(J5&gt;=100,0.1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="30">
+        <f t="shared" ref="Q5:Q23" si="5">O5*P5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="17">
+        <f t="shared" ref="R5:R23" si="6">O5+Q5</f>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Ruben Torres</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F6" s="12">
+        <v>40</v>
+      </c>
+      <c r="G6" s="12">
+        <v>40</v>
+      </c>
+      <c r="H6" s="12">
+        <v>40</v>
+      </c>
+      <c r="I6" s="12">
+        <v>40</v>
+      </c>
+      <c r="J6" s="13">
+        <f>SUM(F6:I6)</f>
+        <v>160</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="L6" s="11">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="M6" s="11">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="N6" s="11">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="O6" s="11">
+        <f>SUM(K6:N6)</f>
+        <v>4000</v>
+      </c>
+      <c r="P6" s="16">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q6" s="30">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="R6" s="17">
+        <f t="shared" si="6"/>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Christy Zhu</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F7" s="12">
+        <v>25</v>
+      </c>
+      <c r="G7" s="12">
+        <v>13</v>
+      </c>
+      <c r="H7" s="12">
+        <v>17</v>
+      </c>
+      <c r="I7" s="12">
+        <v>29</v>
+      </c>
+      <c r="J7" s="13">
+        <f>SUM(F7:I7)</f>
+        <v>84</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="3"/>
+        <v>1250</v>
+      </c>
+      <c r="L7" s="11">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+      <c r="M7" s="11">
+        <f t="shared" si="0"/>
+        <v>850</v>
+      </c>
+      <c r="N7" s="11">
+        <f t="shared" si="0"/>
+        <v>1450</v>
+      </c>
+      <c r="O7" s="11">
+        <f>SUM(K7:N7)</f>
+        <v>4200</v>
+      </c>
+      <c r="P7" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="17">
+        <f t="shared" si="6"/>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Elizabeth Johnson</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F8" s="12">
+        <v>16</v>
+      </c>
+      <c r="G8" s="12">
+        <v>26</v>
+      </c>
+      <c r="H8" s="12">
+        <v>10</v>
+      </c>
+      <c r="I8" s="12">
+        <v>24</v>
+      </c>
+      <c r="J8" s="13">
+        <f>SUM(F8:I8)</f>
+        <v>76</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="L8" s="11">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="M8" s="11">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="N8" s="11">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="O8" s="11">
+        <f t="shared" ref="O8:O23" si="7">SUM(K8:N8)</f>
+        <v>3800</v>
+      </c>
+      <c r="P8" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="17">
+        <f t="shared" si="6"/>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Julio Ruiz</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F9" s="12">
+        <v>14</v>
+      </c>
+      <c r="G9" s="12">
+        <v>21</v>
+      </c>
+      <c r="H9" s="12">
+        <v>27</v>
+      </c>
+      <c r="I9" s="12">
+        <v>12</v>
+      </c>
+      <c r="J9" s="13">
+        <f>SUM(F9:I9)</f>
+        <v>74</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="L9" s="11">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="M9" s="11">
+        <f t="shared" si="0"/>
+        <v>675</v>
+      </c>
+      <c r="N9" s="11">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="O9" s="11">
+        <f t="shared" si="7"/>
+        <v>1850</v>
+      </c>
+      <c r="P9" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="17">
+        <f t="shared" si="6"/>
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Janet Alvarez</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F10" s="12">
+        <v>40</v>
+      </c>
+      <c r="G10" s="12">
+        <v>17</v>
+      </c>
+      <c r="H10" s="12">
+        <v>40</v>
+      </c>
+      <c r="I10" s="12">
+        <v>40</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" ref="J10:J23" si="8">SUM(F10:I10)</f>
+        <v>137</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="L10" s="11">
+        <f t="shared" si="0"/>
+        <v>425</v>
+      </c>
+      <c r="M10" s="11">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="N10" s="11">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="O10" s="11">
+        <f t="shared" si="7"/>
+        <v>3425</v>
+      </c>
+      <c r="P10" s="16">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q10" s="30">
+        <f t="shared" si="5"/>
+        <v>342.5</v>
+      </c>
+      <c r="R10" s="17">
+        <f t="shared" si="6"/>
+        <v>3767.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Marco Mehta</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F11" s="12">
+        <v>40</v>
+      </c>
+      <c r="G11" s="12">
+        <v>40</v>
+      </c>
+      <c r="H11" s="12">
+        <v>40</v>
+      </c>
+      <c r="I11" s="12">
+        <v>40</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="L11" s="11">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="M11" s="11">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="N11" s="11">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="O11" s="11">
+        <f t="shared" si="7"/>
+        <v>8000</v>
+      </c>
+      <c r="P11" s="16">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q11" s="30">
+        <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+      <c r="R11" s="17">
+        <f t="shared" si="6"/>
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Rob Verhoff</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F12" s="12">
+        <v>40</v>
+      </c>
+      <c r="G12" s="12">
+        <v>40</v>
+      </c>
+      <c r="H12" s="12">
+        <v>40</v>
+      </c>
+      <c r="I12" s="12">
+        <v>23</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" si="8"/>
+        <v>143</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="L12" s="11">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="M12" s="11">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="N12" s="11">
+        <f t="shared" si="0"/>
+        <v>575</v>
+      </c>
+      <c r="O12" s="11">
+        <f t="shared" si="7"/>
+        <v>3575</v>
+      </c>
+      <c r="P12" s="16">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q12" s="30">
+        <f t="shared" si="5"/>
+        <v>357.5</v>
+      </c>
+      <c r="R12" s="17">
+        <f t="shared" si="6"/>
+        <v>3932.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Shannon Carlson</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F13" s="12">
+        <v>13</v>
+      </c>
+      <c r="G13" s="12">
+        <v>40</v>
+      </c>
+      <c r="H13" s="12">
+        <v>40</v>
+      </c>
+      <c r="I13" s="12">
+        <v>40</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" si="8"/>
+        <v>133</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" si="3"/>
+        <v>325</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="M13" s="11">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="N13" s="11">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="O13" s="11">
+        <f t="shared" si="7"/>
+        <v>3325</v>
+      </c>
+      <c r="P13" s="16">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q13" s="30">
+        <f t="shared" si="5"/>
+        <v>332.5</v>
+      </c>
+      <c r="R13" s="17">
+        <f t="shared" si="6"/>
+        <v>3657.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Jacquelyn Suarez</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F14" s="12">
+        <v>35</v>
+      </c>
+      <c r="G14" s="12">
+        <v>25</v>
+      </c>
+      <c r="H14" s="12">
+        <v>19</v>
+      </c>
+      <c r="I14" s="12">
+        <v>28</v>
+      </c>
+      <c r="J14" s="13">
+        <f t="shared" si="8"/>
+        <v>107</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="3"/>
+        <v>1750</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+      <c r="M14" s="11">
+        <f t="shared" si="0"/>
+        <v>950</v>
+      </c>
+      <c r="N14" s="11">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="O14" s="11">
+        <f t="shared" si="7"/>
+        <v>5350</v>
+      </c>
+      <c r="P14" s="16">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q14" s="30">
+        <f t="shared" si="5"/>
+        <v>535</v>
+      </c>
+      <c r="R14" s="17">
+        <f t="shared" si="6"/>
+        <v>5885</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Curtis Lu</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F15" s="12">
+        <v>20</v>
+      </c>
+      <c r="G15" s="12">
+        <v>34</v>
+      </c>
+      <c r="H15" s="12">
+        <v>28</v>
+      </c>
+      <c r="I15" s="12">
+        <v>17</v>
+      </c>
+      <c r="J15" s="13">
+        <f t="shared" si="8"/>
+        <v>99</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="L15" s="11">
+        <f t="shared" si="0"/>
+        <v>850</v>
+      </c>
+      <c r="M15" s="11">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="N15" s="11">
+        <f t="shared" si="0"/>
+        <v>425</v>
+      </c>
+      <c r="O15" s="11">
+        <f t="shared" si="7"/>
+        <v>2475</v>
+      </c>
+      <c r="P15" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="17">
+        <f t="shared" si="6"/>
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauren Walker</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F16" s="12">
+        <v>11</v>
+      </c>
+      <c r="G16" s="12">
+        <v>27</v>
+      </c>
+      <c r="H16" s="12">
+        <v>35</v>
+      </c>
+      <c r="I16" s="12">
+        <v>40</v>
+      </c>
+      <c r="J16" s="13">
+        <f t="shared" si="8"/>
+        <v>113</v>
+      </c>
+      <c r="K16" s="11">
+        <f t="shared" si="3"/>
+        <v>275</v>
+      </c>
+      <c r="L16" s="11">
+        <f>$E16*G16</f>
+        <v>675</v>
+      </c>
+      <c r="M16" s="11">
+        <f t="shared" si="0"/>
+        <v>875</v>
+      </c>
+      <c r="N16" s="11">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="O16" s="11">
+        <f t="shared" si="7"/>
+        <v>2825</v>
+      </c>
+      <c r="P16" s="16">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q16" s="30">
+        <f t="shared" si="5"/>
+        <v>282.5</v>
+      </c>
+      <c r="R16" s="17">
+        <f t="shared" si="6"/>
+        <v>3107.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Ian Jenkins</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F17" s="12">
+        <v>28</v>
+      </c>
+      <c r="G17" s="12">
+        <v>14</v>
+      </c>
+      <c r="H17" s="12">
+        <v>21</v>
+      </c>
+      <c r="I17" s="12">
+        <v>10</v>
+      </c>
+      <c r="J17" s="13">
+        <f t="shared" si="8"/>
+        <v>73</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="L17" s="11">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="M17" s="11">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="N17" s="11">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="O17" s="11">
+        <f t="shared" si="7"/>
+        <v>3650</v>
+      </c>
+      <c r="P17" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="17">
+        <f t="shared" si="6"/>
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Sydney Bennett</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F18" s="12">
+        <v>24</v>
+      </c>
+      <c r="G18" s="12">
+        <v>23</v>
+      </c>
+      <c r="H18" s="12">
+        <v>40</v>
+      </c>
+      <c r="I18" s="12">
+        <v>40</v>
+      </c>
+      <c r="J18" s="13">
+        <f t="shared" si="8"/>
+        <v>127</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" si="0"/>
+        <v>1150</v>
+      </c>
+      <c r="M18" s="11">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="N18" s="11">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="O18" s="11">
+        <f t="shared" si="7"/>
+        <v>6350</v>
+      </c>
+      <c r="P18" s="16">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q18" s="30">
+        <f t="shared" si="5"/>
+        <v>635</v>
+      </c>
+      <c r="R18" s="17">
+        <f t="shared" si="6"/>
+        <v>6985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Chloe Young</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F19" s="12">
+        <v>16</v>
+      </c>
+      <c r="G19" s="12">
+        <v>40</v>
+      </c>
+      <c r="H19" s="12">
+        <v>15</v>
+      </c>
+      <c r="I19" s="12">
+        <v>23</v>
+      </c>
+      <c r="J19" s="13">
+        <f t="shared" si="8"/>
+        <v>94</v>
+      </c>
+      <c r="K19" s="11">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="L19" s="11">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="M19" s="11">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="N19" s="11">
+        <f t="shared" si="0"/>
+        <v>575</v>
+      </c>
+      <c r="O19" s="11">
+        <f t="shared" si="7"/>
+        <v>2350</v>
+      </c>
+      <c r="P19" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="17">
+        <f t="shared" si="6"/>
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Wyatt Hill</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F20" s="12">
+        <v>12</v>
+      </c>
+      <c r="G20" s="12">
+        <v>40</v>
+      </c>
+      <c r="H20" s="12">
+        <v>29</v>
+      </c>
+      <c r="I20" s="12">
+        <v>14</v>
+      </c>
+      <c r="J20" s="13">
+        <f t="shared" si="8"/>
+        <v>95</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="L20" s="11">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="M20" s="11">
+        <f t="shared" si="3"/>
+        <v>1450</v>
+      </c>
+      <c r="N20" s="11">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="O20" s="11">
+        <f t="shared" si="7"/>
+        <v>4750</v>
+      </c>
+      <c r="P20" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="17">
+        <f t="shared" si="6"/>
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Shannon Wang</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F21" s="12">
+        <v>19</v>
+      </c>
+      <c r="G21" s="12">
+        <v>40</v>
+      </c>
+      <c r="H21" s="12">
+        <v>40</v>
+      </c>
+      <c r="I21" s="12">
+        <v>27</v>
+      </c>
+      <c r="J21" s="13">
+        <f t="shared" si="8"/>
+        <v>126</v>
+      </c>
+      <c r="K21" s="11">
+        <f t="shared" si="3"/>
+        <v>475</v>
+      </c>
+      <c r="L21" s="11">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="M21" s="11">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="N21" s="11">
+        <f t="shared" si="3"/>
+        <v>675</v>
+      </c>
+      <c r="O21" s="11">
+        <f t="shared" si="7"/>
+        <v>3150</v>
+      </c>
+      <c r="P21" s="16">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q21" s="30">
+        <f t="shared" si="5"/>
+        <v>315</v>
+      </c>
+      <c r="R21" s="17">
+        <f t="shared" si="6"/>
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Clarence Rai</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F22" s="12">
+        <v>26</v>
+      </c>
+      <c r="G22" s="12">
+        <v>40</v>
+      </c>
+      <c r="H22" s="12">
+        <v>20</v>
+      </c>
+      <c r="I22" s="12">
+        <v>16</v>
+      </c>
+      <c r="J22" s="13">
+        <f t="shared" si="8"/>
+        <v>102</v>
+      </c>
+      <c r="K22" s="11">
+        <f>$E22*F22</f>
+        <v>650</v>
+      </c>
+      <c r="L22" s="11">
+        <f>$E22*G22</f>
+        <v>1000</v>
+      </c>
+      <c r="M22" s="11">
+        <f>$E22*H22</f>
+        <v>500</v>
+      </c>
+      <c r="N22" s="11">
+        <f>$E22*I22</f>
+        <v>400</v>
+      </c>
+      <c r="O22" s="11">
+        <f t="shared" si="7"/>
+        <v>2550</v>
+      </c>
+      <c r="P22" s="16">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q22" s="30">
+        <f t="shared" si="5"/>
+        <v>255</v>
+      </c>
+      <c r="R22" s="17">
+        <f t="shared" si="6"/>
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>Luke Lal</v>
+      </c>
+      <c r="D23" s="35">
+        <v>2</v>
+      </c>
+      <c r="E23" s="35">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F23" s="36">
+        <v>15</v>
+      </c>
+      <c r="G23" s="36">
+        <v>20</v>
+      </c>
+      <c r="H23" s="36">
+        <v>40</v>
+      </c>
+      <c r="I23" s="36">
+        <v>18</v>
+      </c>
+      <c r="J23" s="37">
+        <f t="shared" si="8"/>
+        <v>93</v>
+      </c>
+      <c r="K23" s="38">
+        <f>$E23*F23</f>
+        <v>750</v>
+      </c>
+      <c r="L23" s="38">
+        <f>$E23*G23</f>
+        <v>1000</v>
+      </c>
+      <c r="M23" s="38">
+        <f>$E23*H23</f>
+        <v>2000</v>
+      </c>
+      <c r="N23" s="38">
+        <f>$E23*I23</f>
+        <v>900</v>
+      </c>
+      <c r="O23" s="38">
+        <f t="shared" si="7"/>
+        <v>4650</v>
+      </c>
+      <c r="P23" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="41">
+        <f t="shared" si="6"/>
+        <v>4650</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K2:O2"/>
     <mergeCell ref="P2:R2"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D23">
+      <formula1>"1,2"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:N19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="43">
+        <v>81492.5</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="43">
+        <v>4074.625</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="49">
+        <v>0.28323141293852588</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="46">
+        <v>84</v>
+      </c>
+      <c r="M4" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" s="43">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="43">
+        <v>1850</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="49">
+        <v>0.22481493401995495</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" s="46">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="43">
+        <v>8800</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="49">
+        <v>0.18941100740263919</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="46">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="43">
+        <v>4542.5</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="49">
+        <v>0.15288059221113615</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="46">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F8" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="49">
+        <v>0.1496620534277438</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="46">
+        <v>73</v>
+      </c>
+      <c r="M8" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="N8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="49">
+        <v>1</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="46">
+        <v>383</v>
+      </c>
+      <c r="M9" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="N9" s="43">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="47">
+        <v>2187</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="43">
+        <v>227.125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="43">
+        <v>0</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="43">
+        <v>800</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="46">
+        <v>800</v>
+      </c>
+      <c r="M13" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="N13" s="47">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F14" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="46">
+        <v>635</v>
+      </c>
+      <c r="J14" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="M14" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="N14" s="47">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F15" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="46">
+        <v>535</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="47"/>
+      <c r="C16" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="46">
+        <v>400</v>
+      </c>
+      <c r="I16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" s="42">
+        <v>11</v>
+      </c>
+      <c r="K16" s="42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="45">
+        <v>109.35</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="46">
+        <v>357.5</v>
+      </c>
+      <c r="M17" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="N17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="45">
+        <v>73</v>
+      </c>
+      <c r="F18" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="46">
+        <v>2727.5</v>
+      </c>
+      <c r="M18" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="N18" s="47">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="45">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/Assignment_payroll_calculator.xlsx
+++ b/Assignment_payroll_calculator.xlsx
@@ -16,13 +16,14 @@
     <sheet name="Payrol Report" sheetId="1" r:id="rId2"/>
     <sheet name="DataTable" sheetId="4" r:id="rId3"/>
     <sheet name="PivotTable" sheetId="5" r:id="rId4"/>
+    <sheet name="Report" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Payrol Report'!$A$1:$R$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId5"/>
+    <pivotCache cacheId="7" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="138">
   <si>
     <t>Grade</t>
   </si>
@@ -369,6 +370,84 @@
   </si>
   <si>
     <t>Column Labels</t>
+  </si>
+  <si>
+    <t>REPORT VIEW</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Total Bonus</t>
+  </si>
+  <si>
+    <t>Average Total Wages</t>
+  </si>
+  <si>
+    <t>Min Total Wages</t>
+  </si>
+  <si>
+    <t>Max Total Wages</t>
+  </si>
+  <si>
+    <t>Average  Total Hours Worked</t>
+  </si>
+  <si>
+    <t>Minimum 10% Bonus Amount</t>
+  </si>
+  <si>
+    <t>Maximum 10% Bonus Amount</t>
+  </si>
+  <si>
+    <t>Average 10% Bonus Amount</t>
+  </si>
+  <si>
+    <t>Minimum Total Hours Worked</t>
+  </si>
+  <si>
+    <t>Maximum Total Hours Worked</t>
+  </si>
+  <si>
+    <t>HIGHEST PAID EMPLOYEE</t>
+  </si>
+  <si>
+    <t>EMPLOYEE WITH MIN WAGE</t>
+  </si>
+  <si>
+    <t>EMPLOYEES WITH HIGHEST WORKING HOURS</t>
+  </si>
+  <si>
+    <t>EMPLOYEES WITH MIN WORKING HOURS</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRADE </t>
+  </si>
+  <si>
+    <t>BOTTOM 5 EMPLOYEES WITH LOW HOURLY RATE</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>TOP 5 EMPLOYEES WITH HIGHEST BONUS</t>
+  </si>
+  <si>
+    <t>HOURS WORKED</t>
+  </si>
+  <si>
+    <t>BONUS</t>
+  </si>
+  <si>
+    <t>WAGE %</t>
+  </si>
+  <si>
+    <t>TOP 5 EMPLOYEES WITH HIGHEST WAGE IN %</t>
   </si>
 </sst>
 </file>
@@ -383,7 +462,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,8 +528,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,6 +619,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,7 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -675,101 +798,55 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="180">
+  <dxfs count="56">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -791,24 +868,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -868,274 +927,7 @@
       <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -2394,768 +2186,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable16" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M17:N18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="18">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" measureFilter="1">
-      <items count="22">
-        <item x="15"/>
-        <item x="3"/>
-        <item x="18"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="13"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item m="1" x="20"/>
-        <item x="12"/>
-        <item x="19"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="17"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="8" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="1">
-    <i>
-      <x v="6"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total Hours Worked" fld="9" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="6">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="7">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="10">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="11">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="2" type="count" evalOrder="-1" id="5" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 top="0" val="1" filterVal="1"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="7" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C10:D13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="18">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="8" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Average of 10% Bonus Amount2" fld="16" subtotal="average" baseField="0" baseItem="0" numFmtId="44"/>
-    <dataField name="Min of 10% Bonus Amount" fld="16" subtotal="min" baseField="0" baseItem="0" numFmtId="44"/>
-    <dataField name="Max of 10% Bonus Amount3" fld="16" subtotal="max" baseField="0" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="7" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C3:D6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="18">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="8" showAll="0"/>
-    <pivotField dataField="1" numFmtId="6" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Average of Total Wages" fld="17" subtotal="average" baseField="0" baseItem="1897520640" numFmtId="44"/>
-    <dataField name="Min of Total Wages" fld="17" subtotal="min" baseField="0" baseItem="1" numFmtId="44"/>
-    <dataField name="Max of Total Wages" fld="17" subtotal="max" baseField="0" baseItem="1" numFmtId="44"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A9:A10" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="18">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="8" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total Hours Worked" fld="9" baseField="0" baseItem="0" numFmtId="169"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="160">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="159">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="158">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="157">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="156">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="155">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A6:A7" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="18">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="8" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of 10% Bonus Amount" fld="16" baseField="0" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="18">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="8" showAll="0"/>
-    <pivotField dataField="1" numFmtId="6" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total Wages" fld="17" baseField="0" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable15" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M12:N14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="18">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" measureFilter="1">
-      <items count="22">
-        <item x="15"/>
-        <item x="3"/>
-        <item x="18"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="13"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item m="1" x="20"/>
-        <item x="12"/>
-        <item x="19"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="17"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="8" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total Hours Worked" fld="9" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="50">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="51">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="52">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="53">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="54">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="55">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="2" type="count" evalOrder="-1" id="4" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="1" filterVal="1"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable14" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M8:N9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="18">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" measureFilter="1">
-      <items count="22">
-        <item x="15"/>
-        <item x="3"/>
-        <item x="18"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="13"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item m="1" x="20"/>
-        <item x="12"/>
-        <item x="19"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="17"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="8" showAll="0"/>
-    <pivotField dataField="1" numFmtId="6" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="1">
-    <i>
-      <x v="10"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total Wages" fld="17" baseField="0" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="7">
-    <format dxfId="74">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="75">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="76">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="77">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="78">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="79">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="43">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="2" type="count" evalOrder="-1" id="2" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 top="0" val="1" filterVal="1"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M3:N4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="18">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" measureFilter="1">
-      <items count="22">
-        <item x="15"/>
-        <item x="3"/>
-        <item x="18"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="13"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item m="1" x="20"/>
-        <item x="12"/>
-        <item x="19"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="17"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="8" showAll="0"/>
-    <pivotField dataField="1" numFmtId="6" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="1">
-    <i>
-      <x v="14"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total Wages" fld="17" baseField="0" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="7">
-    <format dxfId="116">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="117">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="118">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="119">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="120">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="121">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="36">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="2" type="count" evalOrder="-1" id="1" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="1" filterVal="1"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I14:K16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="18">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="22">
-        <item x="15"/>
-        <item x="3"/>
-        <item x="18"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="13"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item m="1" x="20"/>
-        <item x="12"/>
-        <item x="19"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="17"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="8" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Grade" fld="3" subtotal="count" baseField="2" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="140">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="122">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I3:J9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable17" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F21:G27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -3200,7 +2232,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField numFmtId="6" showAll="0"/>
     <pivotField numFmtId="6" showAll="0"/>
     <pivotField numFmtId="6" showAll="0"/>
@@ -3208,26 +2240,26 @@
     <pivotField numFmtId="6" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="8" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
   <rowItems count="6">
     <i>
-      <x v="1"/>
+      <x v="14"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="19"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="7"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="20"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="13"/>
     </i>
     <i t="grand">
       <x/>
@@ -3237,19 +2269,14 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Total Hours Worked" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Total Wages" fld="17" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
-  <formats count="1">
-    <format dxfId="153">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="2" type="count" evalOrder="-1" id="3" iMeasureFld="0">
+    <filter fld="2" type="count" evalOrder="-1" id="1" iMeasureFld="0">
       <autoFilter ref="A1">
         <filterColumn colId="0">
-          <top10 top="0" val="5" filterVal="5"/>
+          <top10 val="5" filterVal="5"/>
         </filterColumn>
       </autoFilter>
     </filter>
@@ -3262,9 +2289,823 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="7" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C16:D19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Average of Total Hours Worked" fld="9" subtotal="average" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="Min of Total Hours Worked2" fld="9" subtotal="min" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="Max of Total Hours Worked3" fld="9" subtotal="max" baseField="0" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="7" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C10:D13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="8" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Average of 10% Bonus Amount2" fld="16" subtotal="average" baseField="0" baseItem="0" numFmtId="44"/>
+    <dataField name="Min of 10% Bonus Amount" fld="16" subtotal="min" baseField="0" baseItem="0" numFmtId="44"/>
+    <dataField name="Max of 10% Bonus Amount3" fld="16" subtotal="max" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="7" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C3:D6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Average of Total Wages" fld="17" subtotal="average" baseField="0" baseItem="1897520640" numFmtId="44"/>
+    <dataField name="Min of Total Wages" fld="17" subtotal="min" baseField="0" baseItem="1" numFmtId="44"/>
+    <dataField name="Max of Total Wages" fld="17" subtotal="max" baseField="0" baseItem="1" numFmtId="44"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A9:A10" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Hours Worked" fld="9" baseField="0" baseItem="0" numFmtId="169"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="36">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="35">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="34">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="33">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="32">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="31">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A6:A7" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="8" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of 10% Bonus Amount" fld="16" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Wages" fld="17" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable16" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M17:N18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1">
+      <items count="22">
+        <item x="15"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item m="1" x="20"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x v="6"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Hours Worked" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="2" type="count" evalOrder="-1" id="5" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 top="0" val="1" filterVal="1"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable15" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M12:N14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1">
+      <items count="22">
+        <item x="15"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item m="1" x="20"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Hours Worked" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="9">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="2" type="count" evalOrder="-1" id="4" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="1" filterVal="1"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable14" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M8:N9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1">
+      <items count="22">
+        <item x="15"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item m="1" x="20"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x v="10"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Wages" fld="17" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="7">
+    <format dxfId="15">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="2" type="count" evalOrder="-1" id="2" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 top="0" val="1" filterVal="1"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M3:N4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1">
+      <items count="22">
+        <item x="15"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item m="1" x="20"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x v="14"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Wages" fld="17" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="7">
+    <format dxfId="21">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="23">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="24">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="25">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="26">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="2" type="count" evalOrder="-1" id="1" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="1" filterVal="1"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I14:K16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="22">
+        <item x="15"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item m="1" x="20"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Grade" fld="3" subtotal="count" baseField="2" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="28">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="27">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F12:G18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I3:J9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -3309,6 +3150,115 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField numFmtId="6" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Hours Worked" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="29">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="2" type="count" evalOrder="-1" id="3" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 top="0" val="5" filterVal="5"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F12:G18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
+      <items count="22">
+        <item x="15"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item m="1" x="20"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="6" showAll="0"/>
     <pivotField numFmtId="6" showAll="0"/>
@@ -3349,7 +3299,7 @@
     <dataField name="Sum of 10% Bonus Amount" fld="16" baseField="0" baseItem="0" numFmtId="43"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="154">
+    <format dxfId="30">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3371,7 +3321,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F3:G9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
@@ -3475,102 +3425,48 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="7" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C16:D19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="18">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="8" showAll="0"/>
-    <pivotField numFmtId="6" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Average of Total Hours Worked" fld="9" subtotal="average" baseField="0" baseItem="0" numFmtId="1"/>
-    <dataField name="Min of Total Hours Worked2" fld="9" subtotal="min" baseField="0" baseItem="0" numFmtId="1"/>
-    <dataField name="Max of Total Hours Worked3" fld="9" subtotal="max" baseField="0" baseItem="0" numFmtId="1"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:R23" totalsRowShown="0" tableBorderDxfId="179">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:R23" totalsRowShown="0" tableBorderDxfId="55">
   <autoFilter ref="A3:R23"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="First Name" dataDxfId="178"/>
-    <tableColumn id="2" name="Last Name" dataDxfId="177"/>
-    <tableColumn id="3" name="Full Name" dataDxfId="176">
+    <tableColumn id="1" name="First Name" dataDxfId="54"/>
+    <tableColumn id="2" name="Last Name" dataDxfId="53"/>
+    <tableColumn id="3" name="Full Name" dataDxfId="52">
       <calculatedColumnFormula>CONCATENATE(A4," ",B4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Grade" dataDxfId="175"/>
-    <tableColumn id="5" name="Rate" dataDxfId="174">
+    <tableColumn id="4" name="Grade" dataDxfId="51"/>
+    <tableColumn id="5" name="Rate" dataDxfId="50">
       <calculatedColumnFormula>IF(D4=1,25,IF(D4=2,50,"Not Selected"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Hours_Week 1" dataDxfId="173"/>
-    <tableColumn id="7" name="Hours_Week 2" dataDxfId="172"/>
-    <tableColumn id="8" name="Hours_Week 3" dataDxfId="171"/>
-    <tableColumn id="9" name="Hours_Week 4" dataDxfId="170"/>
-    <tableColumn id="10" name="Total Hours Worked" dataDxfId="169">
+    <tableColumn id="6" name="Hours_Week 1" dataDxfId="49"/>
+    <tableColumn id="7" name="Hours_Week 2" dataDxfId="48"/>
+    <tableColumn id="8" name="Hours_Week 3" dataDxfId="47"/>
+    <tableColumn id="9" name="Hours_Week 4" dataDxfId="46"/>
+    <tableColumn id="10" name="Total Hours Worked" dataDxfId="45">
       <calculatedColumnFormula>SUM(F4:I4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Wages_Week 1" dataDxfId="168">
+    <tableColumn id="11" name="Wages_Week 1" dataDxfId="44">
       <calculatedColumnFormula>$E4*F4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Wages_Week 2" dataDxfId="167">
+    <tableColumn id="12" name="Wages_Week 2" dataDxfId="43">
       <calculatedColumnFormula>$E4*G4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Wages_Week 3" dataDxfId="166">
+    <tableColumn id="13" name="Wages_Week 3" dataDxfId="42">
       <calculatedColumnFormula>$E4*H4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Wages_Week 4" dataDxfId="165">
+    <tableColumn id="14" name="Wages_Week 4" dataDxfId="41">
       <calculatedColumnFormula>$E4*I4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Total Weekly Wage" dataDxfId="164">
+    <tableColumn id="15" name="Total Weekly Wage" dataDxfId="40">
       <calculatedColumnFormula>SUM(K4:N4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="0.10% Bonus" dataDxfId="163">
+    <tableColumn id="16" name="0.10% Bonus" dataDxfId="39">
       <calculatedColumnFormula>IF(J4&gt;=100,0.1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="10% Bonus Amount" dataDxfId="162">
+    <tableColumn id="17" name="10% Bonus Amount" dataDxfId="38">
       <calculatedColumnFormula>O4*P4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Total Wages" dataDxfId="161">
+    <tableColumn id="18" name="Total Wages" dataDxfId="37">
       <calculatedColumnFormula>O4+Q4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3878,7 +3774,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4025,7 +3921,7 @@
   <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView zoomScale="79" workbookViewId="0">
-      <selection sqref="A1:XFD23"/>
+      <selection activeCell="C2" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5641,6 +5537,9 @@
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="A1:R1"/>
   </mergeCells>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D23">
       <formula1>"1,2"</formula1>
@@ -5654,15 +5553,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView topLeftCell="I22" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4:R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
     <col min="6" max="9" width="17.28515625" customWidth="1"/>
     <col min="10" max="10" width="22.85546875" customWidth="1"/>
     <col min="11" max="14" width="18" customWidth="1"/>
@@ -7137,17 +7038,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N19"/>
+  <dimension ref="A3:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
@@ -7475,8 +7376,473 @@
         <v>160</v>
       </c>
     </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="F21" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="F22" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="43">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="F23" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="43">
+        <v>6985</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="F24" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="43">
+        <v>5885</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="F25" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="43">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="F26" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="43">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="F27" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="43">
+        <v>31070</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+    </row>
+    <row r="2" spans="1:7" s="69" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="52">
+        <f>GETPIVOTDATA("Total Wages",PivotTable!$A$3)</f>
+        <v>81492.5</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="54">
+        <v>4074.625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="54">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="54">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="52">
+        <f>GETPIVOTDATA("10% Bonus Amount",PivotTable!$A$6)</f>
+        <v>4542.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="55">
+        <v>109.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="55">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="52">
+        <f>GETPIVOTDATA("Total Hours Worked",PivotTable!$A$9)</f>
+        <v>2187</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="55">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="58"/>
+      <c r="D15" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="54">
+        <v>8800</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="56">
+        <v>0.28323141293852588</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="56">
+        <v>0.22481493401995495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="56">
+        <v>0.18941100740263919</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="58"/>
+      <c r="D19" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="56">
+        <v>0.15288059221113615</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="54">
+        <v>1850</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="56">
+        <v>0.1496620534277438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="58"/>
+      <c r="D23" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="59">
+        <v>160</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="57">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="59">
+        <v>160</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="57">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="57">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="57">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="54">
+        <v>227.125</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="57">
+        <v>357.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="54">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="58"/>
+      <c r="D32" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="59">
+        <v>73</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="57">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="57">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="57">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="57">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="61">
+        <v>1</v>
+      </c>
+      <c r="B37" s="62">
+        <v>11</v>
+      </c>
+      <c r="D37" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="57">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="63">
+        <v>2</v>
+      </c>
+      <c r="B38" s="62">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A32:B32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>